--- a/Calculators/Book1.xlsx
+++ b/Calculators/Book1.xlsx
@@ -8,26 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gweaver/Documents/GitHub/2023CompetitionCode/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB4B367-A682-DB4E-A903-512C49514F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277CA84-724A-C742-AA64-A8208E2364C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="1380" windowWidth="29760" windowHeight="19560" activeTab="2" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
+    <workbookView xWindow="-34240" yWindow="-8220" windowWidth="29760" windowHeight="19560" activeTab="5" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$8:$A$111</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$8:$B$111</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$8:$A$111</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$8:$B$111</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Position</t>
   </si>
@@ -175,15 +168,127 @@
   <si>
     <t>ticks per 90</t>
   </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>motor speed</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>rps</t>
+  </si>
+  <si>
+    <t>seconds per rotation</t>
+  </si>
+  <si>
+    <t>ticks per second</t>
+  </si>
+  <si>
+    <t>time with ramp per tile</t>
+  </si>
+  <si>
+    <t>moments per change</t>
+  </si>
+  <si>
+    <t>degrees assigned</t>
+  </si>
+  <si>
+    <t>ramp ratre per milli</t>
+  </si>
+  <si>
+    <t>desired power</t>
+  </si>
+  <si>
+    <t>nextpoint</t>
+  </si>
+  <si>
+    <t>ramp tate</t>
+  </si>
+  <si>
+    <t>curpoint</t>
+  </si>
+  <si>
+    <t>tiles per second</t>
+  </si>
+  <si>
+    <t>seconds/tile</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>millis</t>
+  </si>
+  <si>
+    <t>millis*1.1</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>move X,Y wheel directions</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>counts per motor rev</t>
+  </si>
+  <si>
+    <t>drive gear reduction</t>
+  </si>
+  <si>
+    <t>counts per inch forward</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>distance in inches</t>
+  </si>
+  <si>
+    <t>max speed</t>
+  </si>
+  <si>
+    <t>FrontRight</t>
+  </si>
+  <si>
+    <t>BackRight</t>
+  </si>
+  <si>
+    <t>BackLeft</t>
+  </si>
+  <si>
+    <t>FrontLeft</t>
+  </si>
+  <si>
+    <t>leftTarget</t>
+  </si>
+  <si>
+    <t>rightTarget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -214,12 +319,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +826,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1298,6 +1403,1134 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5664260717410323E-2"/>
+          <c:y val="0.14693965517241381"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.74013677708389902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radians</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34FC-A04F-A128-E1AFDEA534CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radians</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31415926535897931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94247779607693793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8849555921538759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1991148575128552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5132741228718345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8274333882308138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1415926535897931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34FC-A04F-A128-E1AFDEA534CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>radians</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3090169943749474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58778525229247314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95105651629515353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95105651629515364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80901699437494745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58778525229247325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30901699437494751</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34FC-A04F-A128-E1AFDEA534CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1274074271"/>
+        <c:axId val="1274093567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1274074271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274093567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1274093567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274074271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$11:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0524553571428575E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14104910714285715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21157366071428574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2820982142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35262276785714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42314732142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49367187499999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5641964285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63472098214285722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70524553571428583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5633-ED42-A461-3849DCF3E83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degrees assigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$11:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.31415926535897931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94247779607693782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8849555921538756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1991148575128547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5132741228718345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8274333882308138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1415926535897931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5633-ED42-A461-3849DCF3E83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$11:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3090169943749474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58778525229247314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80901699437494734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95105651629515353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95105651629515364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80901699437494778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58778525229247325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30901699437494751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5633-ED42-A461-3849DCF3E83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1274063455"/>
+        <c:axId val="1298203647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1274063455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298203647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1298203647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274063455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1378,6 +2611,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2391,6 +3704,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2481,6 +4826,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92651B93-583A-05D7-8312-C30465AF6874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683DA9EE-24EF-B678-CF0B-4931FD3BD48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2954,7 +5381,7 @@
         <v>0.1</v>
       </c>
       <c r="B9" s="3">
-        <f>(A9-A8)*I8*$C$6+B8</f>
+        <f t="shared" ref="B9:B37" si="0">(A9-A8)*I8*$C$6+B8</f>
         <v>299.04000000000002</v>
       </c>
       <c r="C9" s="3">
@@ -2970,19 +5397,19 @@
         <v>2990.3999999999996</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:F37" si="0">$C$1*(C9+$C$2*D9+$C$3*E9)</f>
+        <f t="shared" ref="F9:F37" si="1">$C$1*(C9+$C$2*D9+$C$3*E9)</f>
         <v>40.007680000000001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G37" si="1">IF(ABS(C9)&lt;$G$4,0,F9)</f>
+        <f t="shared" ref="G9:G37" si="2">IF(ABS(C9)&lt;$G$4,0,F9)</f>
         <v>40.007680000000001</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H37" si="2">IF(ABS(G9)&gt;1,SIGN(G9),G9)</f>
+        <f t="shared" ref="H9:H37" si="3">IF(ABS(G9)&gt;1,SIGN(G9),G9)</f>
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I37" si="3">IF(-0.1&lt;H9&lt;0.1,0,H9)</f>
+        <f t="shared" ref="I9:I37" si="4">IF(-0.1&lt;H9&lt;0.1,0,H9)</f>
         <v>1</v>
       </c>
       <c r="J9" s="3"/>
@@ -2992,39 +5419,39 @@
         <v>0.2</v>
       </c>
       <c r="B10" s="3">
-        <f>(A10-A9)*I9*$C$6+B9</f>
+        <f t="shared" si="0"/>
         <v>598.08000000000004</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C9:C37" si="4">$C$4-B10</f>
+        <f t="shared" ref="C10:C37" si="5">$C$4-B10</f>
         <v>4701.92</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D37" si="5">D9+C10*(A10-$A$8)</f>
+        <f t="shared" ref="D10:D37" si="6">D9+C10*(A10-$A$8)</f>
         <v>1440.48</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E37" si="6">(C9-C10)/(A10-$A$8)</f>
+        <f t="shared" ref="E10:E37" si="7">(C9-C10)/(A10-$A$8)</f>
         <v>1495.1999999999998</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>37.615360000000003</v>
-      </c>
-      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>37.615360000000003</v>
       </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>37.615360000000003</v>
+      </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <f>B10-B9</f>
+        <f t="shared" ref="J10:J37" si="8">B10-B9</f>
         <v>299.04000000000002</v>
       </c>
     </row>
@@ -3033,39 +5460,39 @@
         <v>0.3</v>
       </c>
       <c r="B11" s="3">
-        <f>(A11-A10)*I10*$C$6+B10</f>
+        <f t="shared" si="0"/>
         <v>897.12</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4402.88</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2761.3440000000001</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>996.8</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>35.223040000000005</v>
-      </c>
-      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>35.223040000000005</v>
       </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>35.223040000000005</v>
+      </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <f>B11-B10</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3074,39 +5501,39 @@
         <v>0.4</v>
       </c>
       <c r="B12" s="3">
-        <f>(A12-A11)*I11*$C$6+B11</f>
+        <f t="shared" si="0"/>
         <v>1196.1600000000001</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4103.84</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4402.88</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>747.59999999999991</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>32.830719999999999</v>
-      </c>
-      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>32.830719999999999</v>
       </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>32.830719999999999</v>
+      </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <f>B12-B11</f>
+        <f t="shared" si="8"/>
         <v>299.04000000000008</v>
       </c>
     </row>
@@ -3115,39 +5542,39 @@
         <v>0.5</v>
       </c>
       <c r="B13" s="3">
-        <f>(A13-A12)*I12*$C$6+B12</f>
+        <f t="shared" si="0"/>
         <v>1495.2</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3804.8</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6305.2800000000007</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>598.07999999999993</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>30.438400000000001</v>
-      </c>
-      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>30.438400000000001</v>
       </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>30.438400000000001</v>
+      </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <f>B13-B12</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3156,39 +5583,39 @@
         <v>0.6</v>
       </c>
       <c r="B14" s="3">
-        <f>(A14-A13)*I13*$C$6+B13</f>
+        <f t="shared" si="0"/>
         <v>1794.24</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3505.76</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8408.7360000000008</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>498.4</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>28.046080000000003</v>
-      </c>
-      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>28.046080000000003</v>
       </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>28.046080000000003</v>
+      </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <f>B14-B13</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3197,39 +5624,39 @@
         <v>0.7</v>
       </c>
       <c r="B15" s="3">
-        <f>(A15-A14)*I14*$C$6+B14</f>
+        <f t="shared" si="0"/>
         <v>2093.2799999999997</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3206.7200000000003</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10653.44</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>427.2</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>25.653760000000002</v>
-      </c>
-      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>25.653760000000002</v>
       </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>25.653760000000002</v>
+      </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <f>B15-B14</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999974</v>
       </c>
     </row>
@@ -3238,39 +5665,39 @@
         <v>0.8</v>
       </c>
       <c r="B16" s="3">
-        <f>(A16-A15)*I15*$C$6+B15</f>
+        <f t="shared" si="0"/>
         <v>2392.3200000000002</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2907.68</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12979.584000000001</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>373.80000000000052</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>23.26144</v>
-      </c>
-      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>23.26144</v>
       </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>23.26144</v>
+      </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <f>B16-B15</f>
+        <f t="shared" si="8"/>
         <v>299.04000000000042</v>
       </c>
     </row>
@@ -3279,39 +5706,39 @@
         <v>0.9</v>
       </c>
       <c r="B17" s="3">
-        <f>(A17-A16)*I16*$C$6+B16</f>
+        <f t="shared" si="0"/>
         <v>2691.36</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2608.64</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15327.36</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>332.26666666666659</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>20.869119999999999</v>
-      </c>
-      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>20.869119999999999</v>
       </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>20.869119999999999</v>
+      </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <f>B17-B16</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3320,39 +5747,39 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <f>(A18-A17)*I17*$C$6+B17</f>
+        <f t="shared" si="0"/>
         <v>2990.4</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2309.6</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17636.96</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>299.03999999999996</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>18.476800000000001</v>
-      </c>
-      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>18.476800000000001</v>
       </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>18.476800000000001</v>
+      </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <f>B18-B17</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3361,39 +5788,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B19" s="3">
-        <f>(A19-A18)*I18*$C$6+B18</f>
+        <f t="shared" si="0"/>
         <v>3289.4400000000005</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2010.5599999999995</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19848.575999999997</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>271.85454545454581</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>16.084479999999996</v>
-      </c>
-      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>16.084479999999996</v>
       </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>16.084479999999996</v>
+      </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <f>B19-B18</f>
+        <f t="shared" si="8"/>
         <v>299.04000000000042</v>
       </c>
     </row>
@@ -3402,39 +5829,39 @@
         <v>1.2</v>
       </c>
       <c r="B20" s="3">
-        <f>(A20-A19)*I19*$C$6+B19</f>
+        <f t="shared" si="0"/>
         <v>3588.48</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1711.52</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21902.399999999998</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>249.19999999999959</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>13.692159999999999</v>
-      </c>
-      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>13.692159999999999</v>
       </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>13.692159999999999</v>
+      </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f>B20-B19</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999951</v>
       </c>
     </row>
@@ -3443,39 +5870,39 @@
         <v>1.3</v>
       </c>
       <c r="B21" s="3">
-        <f>(A21-A20)*I20*$C$6+B20</f>
+        <f t="shared" si="0"/>
         <v>3887.5200000000004</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1412.4799999999996</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23738.623999999996</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>230.03076923076955</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>11.299839999999996</v>
-      </c>
-      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>11.299839999999996</v>
       </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>11.299839999999996</v>
+      </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f>B21-B20</f>
+        <f t="shared" si="8"/>
         <v>299.04000000000042</v>
       </c>
     </row>
@@ -3484,39 +5911,39 @@
         <v>1.4</v>
       </c>
       <c r="B22" s="3">
-        <f>(A22-A21)*I21*$C$6+B21</f>
+        <f t="shared" si="0"/>
         <v>4186.5600000000004</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1113.4399999999996</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25297.439999999995</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>213.6</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>8.9075199999999963</v>
-      </c>
-      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>8.9075199999999963</v>
       </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9075199999999963</v>
+      </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f>B22-B21</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3525,39 +5952,39 @@
         <v>1.5</v>
       </c>
       <c r="B23" s="3">
-        <f>(A23-A22)*I22*$C$6+B22</f>
+        <f t="shared" si="0"/>
         <v>4485.6000000000004</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>814.39999999999964</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26519.039999999994</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>199.35999999999999</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5151999999999974</v>
-      </c>
-      <c r="G23" s="3">
         <f t="shared" si="1"/>
         <v>6.5151999999999974</v>
       </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5151999999999974</v>
+      </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <f>B23-B22</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3566,39 +5993,39 @@
         <v>1.6</v>
       </c>
       <c r="B24" s="3">
-        <f>(A24-A23)*I23*$C$6+B23</f>
+        <f t="shared" si="0"/>
         <v>4784.6400000000003</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>515.35999999999967</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27343.615999999995</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>186.89999999999998</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1228799999999977</v>
-      </c>
-      <c r="G24" s="3">
         <f t="shared" si="1"/>
         <v>4.1228799999999977</v>
       </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1228799999999977</v>
+      </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <f>B24-B23</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3607,39 +6034,39 @@
         <v>1.7</v>
       </c>
       <c r="B25" s="3">
-        <f>(A25-A24)*I24*$C$6+B24</f>
+        <f t="shared" si="0"/>
         <v>5083.68</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216.31999999999971</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27711.359999999993</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>175.90588235294115</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7305599999999977</v>
-      </c>
-      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>1.7305599999999977</v>
       </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7305599999999977</v>
+      </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J25" s="3">
-        <f>B25-B24</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3648,39 +6075,39 @@
         <v>1.8</v>
       </c>
       <c r="B26" s="3">
-        <f>(A26-A25)*I25*$C$6+B25</f>
+        <f t="shared" si="0"/>
         <v>5382.72</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-82.720000000000255</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27562.463999999993</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>166.1333333333333</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.66176000000000201</v>
-      </c>
-      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>-0.66176000000000201</v>
       </c>
-      <c r="H26" s="3">
+      <c r="G26" s="3">
         <f t="shared" si="2"/>
         <v>-0.66176000000000201</v>
       </c>
-      <c r="I26" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="3"/>
         <v>-0.66176000000000201</v>
       </c>
+      <c r="I26" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.66176000000000201</v>
+      </c>
       <c r="J26" s="3">
-        <f>B26-B25</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3689,39 +6116,39 @@
         <v>1.9</v>
       </c>
       <c r="B27" s="3">
-        <f>(A27-A26)*I26*$C$6+B26</f>
+        <f t="shared" si="0"/>
         <v>5184.8272895999999</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.17271040000014</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27781.292149759993</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-104.15405810526337</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92138168320000113</v>
-      </c>
-      <c r="G27" s="3">
         <f t="shared" si="1"/>
         <v>0.92138168320000113</v>
       </c>
-      <c r="H27" s="3">
+      <c r="G27" s="3">
         <f t="shared" si="2"/>
         <v>0.92138168320000113</v>
       </c>
-      <c r="I27" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="3"/>
         <v>0.92138168320000113</v>
       </c>
+      <c r="I27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92138168320000113</v>
+      </c>
       <c r="J27" s="3">
-        <f>B27-B26</f>
+        <f t="shared" si="8"/>
         <v>-197.8927104000004</v>
       </c>
     </row>
@@ -3730,39 +6157,39 @@
         <v>2</v>
       </c>
       <c r="B28" s="3">
-        <f>(A28-A27)*I27*$C$6+B27</f>
+        <f t="shared" si="0"/>
         <v>5460.3572681441283</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-160.35726814412828</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27460.577613471738</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137.76498927206421</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2828581451530263</v>
-      </c>
-      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>-1.2828581451530263</v>
       </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2828581451530263</v>
+      </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I28" s="3">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="I28" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
       <c r="J28" s="3">
-        <f>B28-B27</f>
+        <f t="shared" si="8"/>
         <v>275.52997854412843</v>
       </c>
     </row>
@@ -3771,39 +6198,39 @@
         <v>2.1</v>
       </c>
       <c r="B29" s="3">
-        <f>(A29-A28)*I28*$C$6+B28</f>
+        <f t="shared" si="0"/>
         <v>5161.3172681441283</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.68273185587168</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27751.811350369069</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-142.39999999999998</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1094618548469735</v>
-      </c>
-      <c r="G29" s="3">
         <f t="shared" si="1"/>
         <v>1.1094618548469735</v>
       </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1094618548469735</v>
+      </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <f>B29-B28</f>
+        <f t="shared" si="8"/>
         <v>-299.03999999999996</v>
       </c>
     </row>
@@ -3812,39 +6239,39 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B30" s="3">
-        <f>(A30-A29)*I29*$C$6+B29</f>
+        <f t="shared" si="0"/>
         <v>5460.3572681441283</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-160.35726814412828</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27399.025360451986</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.92727272727271</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2828581451530263</v>
-      </c>
-      <c r="G30" s="3">
         <f t="shared" si="1"/>
         <v>-1.2828581451530263</v>
       </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2828581451530263</v>
+      </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I30" s="3">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="I30" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
       <c r="J30" s="3">
-        <f>B30-B29</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3853,39 +6280,39 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B31" s="3">
-        <f>(A31-A30)*I30*$C$6+B30</f>
+        <f t="shared" si="0"/>
         <v>5161.3172681441292</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.68273185587077</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27717.995643720489</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-130.01739130434743</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1094618548469661</v>
-      </c>
-      <c r="G31" s="3">
         <f t="shared" si="1"/>
         <v>1.1094618548469661</v>
       </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1094618548469661</v>
+      </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <f>B31-B30</f>
+        <f t="shared" si="8"/>
         <v>-299.03999999999905</v>
       </c>
     </row>
@@ -3894,39 +6321,39 @@
         <v>2.4</v>
       </c>
       <c r="B32" s="3">
-        <f>(A32-A31)*I31*$C$6+B31</f>
+        <f t="shared" si="0"/>
         <v>5460.3572681441292</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-160.35726814412919</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27333.138200174581</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.6</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2828581451530336</v>
-      </c>
-      <c r="G32" s="3">
         <f t="shared" si="1"/>
         <v>-1.2828581451530336</v>
       </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2828581451530336</v>
+      </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I32" s="3">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="I32" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
       <c r="J32" s="3">
-        <f>B32-B31</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -3935,39 +6362,39 @@
         <v>2.5</v>
       </c>
       <c r="B33" s="3">
-        <f>(A33-A32)*I32*$C$6+B32</f>
+        <f t="shared" si="0"/>
         <v>5161.3172681441292</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.68273185587077</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27679.845029814256</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-119.61599999999999</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1094618548469661</v>
-      </c>
-      <c r="G33" s="3">
         <f t="shared" si="1"/>
         <v>1.1094618548469661</v>
       </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1094618548469661</v>
+      </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f>B33-B32</f>
+        <f t="shared" si="8"/>
         <v>-299.03999999999996</v>
       </c>
     </row>
@@ -3976,39 +6403,39 @@
         <v>2.6</v>
       </c>
       <c r="B34" s="3">
-        <f>(A34-A33)*I33*$C$6+B33</f>
+        <f t="shared" si="0"/>
         <v>5460.3572681441292</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-160.35726814412919</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27262.916132639519</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115.01538461538459</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2828581451530336</v>
-      </c>
-      <c r="G34" s="3">
         <f t="shared" si="1"/>
         <v>-1.2828581451530336</v>
       </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2828581451530336</v>
+      </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I34" s="3">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="I34" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
       <c r="J34" s="3">
-        <f>B34-B33</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999996</v>
       </c>
     </row>
@@ -4017,39 +6444,39 @@
         <v>2.7</v>
       </c>
       <c r="B35" s="3">
-        <f>(A35-A34)*I34*$C$6+B34</f>
+        <f t="shared" si="0"/>
         <v>5161.3172681441292</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.68273185587077</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27637.35950865037</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-110.75555555555553</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1094618548469661</v>
-      </c>
-      <c r="G35" s="3">
         <f t="shared" si="1"/>
         <v>1.1094618548469661</v>
       </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1094618548469661</v>
+      </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <f>B35-B34</f>
+        <f t="shared" si="8"/>
         <v>-299.03999999999996</v>
       </c>
     </row>
@@ -4058,39 +6485,39 @@
         <v>2.8</v>
       </c>
       <c r="B36" s="3">
-        <f>(A36-A35)*I35*$C$6+B35</f>
+        <f t="shared" si="0"/>
         <v>5460.3572681441283</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-160.35726814412828</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27188.359157846811</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106.79999999999967</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2828581451530263</v>
-      </c>
-      <c r="G36" s="3">
         <f t="shared" si="1"/>
         <v>-1.2828581451530263</v>
       </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2828581451530263</v>
+      </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="I36" s="3">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="I36" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
       <c r="J36" s="3">
-        <f>B36-B35</f>
+        <f t="shared" si="8"/>
         <v>299.03999999999905</v>
       </c>
     </row>
@@ -4099,39 +6526,39 @@
         <v>2.9</v>
       </c>
       <c r="B37" s="3">
-        <f>(A37-A36)*I36*$C$6+B36</f>
+        <f t="shared" si="0"/>
         <v>5161.3172681441283</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.68273185587168</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27590.539080228838</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-103.11724137931033</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1094618548469735</v>
-      </c>
-      <c r="G37" s="3">
         <f t="shared" si="1"/>
         <v>1.1094618548469735</v>
       </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1094618548469735</v>
+      </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <f>B37-B36</f>
+        <f t="shared" si="8"/>
         <v>-299.03999999999996</v>
       </c>
     </row>
@@ -5182,16 +7609,187 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA48B278-53BF-424D-95F9-0C3227BF9337}">
-  <dimension ref="A3:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461434B4-81B7-9A4B-BCA9-27D6F26AC1E9}">
+  <dimension ref="A4:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>A5*PI()</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>SIN(B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B15" si="0">A6*PI()</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="C6">
+        <f>SIN(B6)</f>
+        <v>0.3090169943749474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C15" si="1">SIN(B7)</f>
+        <v>0.58778525229247314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.7</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.8</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.9</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA48B278-53BF-424D-95F9-0C3227BF9337}">
+  <dimension ref="A3:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5199,15 +7797,15 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5215,59 +7813,149 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f>96/25.4</f>
+        <v>3.7795275590551185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <f>C27+0.2</f>
+        <v>0.70524553571428572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <f>H6/10</f>
+        <v>7.0524553571428575E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="C8">
         <f>C4/C5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="C9">
         <f>PI()*C6</f>
-        <v>12.566370614359172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.873736013567724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="C10">
         <f>C9*(C8/C3)</f>
-        <v>2.2439947525641379E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.590232501817106E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="C11">
         <f>FLOOR(24/C10,1)</f>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1509</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>(H11+$H$21/10)*PI()/$H$21</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="J11">
+        <f>SIN(I11)</f>
+        <v>0.3090169943749474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>H11+$H$7</f>
+        <v>7.0524553571428575E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I21" si="0">(H12+$H$21/10)*PI()/$H$21</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J21" si="1">SIN(I12)</f>
+        <v>0.58778525229247314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H20" si="2">H12+$H$7</f>
+        <v>0.14104910714285715</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693782</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.21157366071428574</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5275,14 +7963,1338 @@
         <f>PI()*C14</f>
         <v>50.26548245743669</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.2820982142857143</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
         <f>FLOOR((90/360)*C15/C10,1)</f>
-        <v>560</v>
+        <v>790</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.35262276785714286</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.8849555921538756</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.42314732142857142</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2.1991148575128547</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.49367187499999998</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.5641964285714286</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.63472098214285722</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>C20/60</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <f>H20+$H$7</f>
+        <v>0.70524553571428583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <f>1/C21</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <f>C3/C23</f>
+        <v>2986.6666666666665</v>
+      </c>
+      <c r="D24">
+        <f>C21*C3</f>
+        <v>2986.6666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <f>C11/C24</f>
+        <v>0.50524553571428577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <f>C24/C11</f>
+        <v>1.9792356969295337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <f>FLOOR(F30*(1/C24)*1000,1)</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <f>FLOOR(F31*1.1,1)</f>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <f>FLOOR(F32/10,1)</f>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8758A15-D43C-DE46-BC51-386F026FBAD3}">
+  <dimension ref="A4:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>C8+D4*(0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>IF(B8-D8&gt;0,D8,B8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>D9</f>
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <f>C8+$D$4*(A9-A8)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E33" si="0">IF(B9-D9&gt;0,D9,B9)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C33" si="1">D10</f>
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D33" si="2">C9+$D$4*(A10-A9)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD9C435-F989-4848-8014-E9A413DBD29A}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <f>24/32</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <f>96/25.4</f>
+        <v>3.7795275590551185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4">
+        <f>(I1+I2)/(I3*PI())</f>
+        <v>94.388994223836221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>ATAN2(A8,B8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>ATAN2(A8,B8)-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="E8">
+        <f>DEGREES(D8)</f>
+        <v>-45</v>
+      </c>
+      <c r="F8">
+        <f>SIN(D8)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="G8">
+        <f>COS(D8)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H8">
+        <f>IF($I$5&gt;1,$I$6/$I$5,$I$6/SQRT(2))</f>
+        <v>0.08</v>
+      </c>
+      <c r="I8" s="5">
+        <f>H8*($I$5*F8)</f>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="J8" s="5">
+        <f>H8*($I$5*G8)</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="K8" s="5">
+        <f>I8</f>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="L8" s="5">
+        <f>J8</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="M8">
+        <f>FLOOR(G8*($I$4*$I$5),1)</f>
+        <v>667</v>
+      </c>
+      <c r="N8">
+        <f>FLOOR(F8*($I$4*$I$5),1)</f>
+        <v>-668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C15" si="0">ATAN2(A9,B9)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D15" si="1">ATAN2(A9,B9)-PI()/4</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E15" si="2">DEGREES(D9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F15" si="3">SIN(D9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G15" si="4">COS(D9)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H15" si="5">IF($I$5&gt;1,$I$6/$I$5,$I$6/SQRT(2))</f>
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I15" si="6">H9*($I$5*F9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9:J15" si="7">H9*($I$5*G9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:K15" si="8">I9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:L15" si="9">J9</f>
+        <v>0.8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M15" si="10">FLOOR(G9*($I$4*$I$5),1)</f>
+        <v>943</v>
+      </c>
+      <c r="N9">
+        <f>FLOOR(F9*($I$4*$I$5),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="8"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="9"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>667</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N15" si="11">FLOOR(F10*($I$4*$I$5),1)</f>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="7"/>
+        <v>4.90059381963448E-17</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="9"/>
+        <v>4.90059381963448E-17</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="8"/>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>-668</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-180</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>-9.8011876392689601E-17</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="8"/>
+        <v>-9.8011876392689601E-17</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.8</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>-944</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>-135</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.56568542494923801</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>-668</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>-668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>-90</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.8</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="7"/>
+        <v>4.90059381963448E-17</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="9"/>
+        <v>4.90059381963448E-17</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="11"/>
+        <v>-944</v>
       </c>
     </row>
   </sheetData>

--- a/Calculators/Book1.xlsx
+++ b/Calculators/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gweaver/Documents/GitHub/2023CompetitionCode/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277CA84-724A-C742-AA64-A8208E2364C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB8CF1-3B54-B54E-A8BF-39E7216843DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34240" yWindow="-8220" windowWidth="29760" windowHeight="19560" activeTab="5" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
+    <workbookView minimized="1" xWindow="-37600" yWindow="860" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Position</t>
   </si>
@@ -155,9 +156,6 @@
   </si>
   <si>
     <t>distance per tick</t>
-  </si>
-  <si>
-    <t>ticks per tile</t>
   </si>
   <si>
     <t>robot diameter</t>
@@ -278,6 +276,21 @@
   </si>
   <si>
     <t>rightTarget</t>
+  </si>
+  <si>
+    <t>top dimension</t>
+  </si>
+  <si>
+    <t>bottom dimension</t>
+  </si>
+  <si>
+    <t>height total</t>
+  </si>
+  <si>
+    <t>height of taper</t>
+  </si>
+  <si>
+    <t>inches</t>
   </si>
 </sst>
 </file>
@@ -2147,34 +2160,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0524553571428575E-2</c:v>
+                  <c:v>2.2712948359932286E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14104910714285715</c:v>
+                  <c:v>4.5425896719864571E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21157366071428574</c:v>
+                  <c:v>6.8138845079796853E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2820982142857143</c:v>
+                  <c:v>9.0851793439729142E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35262276785714286</c:v>
+                  <c:v>0.11356474179966143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42314732142857142</c:v>
+                  <c:v>0.13627769015959371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49367187499999998</c:v>
+                  <c:v>0.158990638519526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5641964285714286</c:v>
+                  <c:v>0.18170358687945828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63472098214285722</c:v>
+                  <c:v>0.20441653523939057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70524553571428583</c:v>
+                  <c:v>0.22712948359932286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,7 +2238,7 @@
                   <c:v>0.62831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94247779607693782</c:v>
+                  <c:v>0.94247779607693793</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2566370614359172</c:v>
@@ -2234,10 +2247,10 @@
                   <c:v>1.5707963267948966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8849555921538756</c:v>
+                  <c:v>1.8849555921538759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1991148575128547</c:v>
+                  <c:v>2.1991148575128552</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.5132741228718345</c:v>
@@ -2297,7 +2310,7 @@
                   <c:v>0.58778525229247314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80901699437494734</c:v>
+                  <c:v>0.80901699437494745</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.95105651629515353</c:v>
@@ -2309,7 +2322,7 @@
                   <c:v>0.95105651629515364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80901699437494778</c:v>
+                  <c:v>0.80901699437494745</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.58778525229247325</c:v>
@@ -7623,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -7781,10 +7794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA48B278-53BF-424D-95F9-0C3227BF9337}">
-  <dimension ref="A3:J33"/>
+  <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7802,7 +7815,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -7810,7 +7823,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -7818,24 +7831,23 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <f>96/25.4</f>
-        <v>3.7795275590551185</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <f>C27+0.2</f>
-        <v>0.70524553571428572</v>
+        <v>0.22712948359932286</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <f>H6/10</f>
-        <v>7.0524553571428575E-2</v>
+        <v>2.2712948359932286E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -7844,7 +7856,7 @@
       </c>
       <c r="C8">
         <f>C4/C5</f>
-        <v>1.5</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -7853,7 +7865,7 @@
       </c>
       <c r="C9">
         <f>PI()*C6</f>
-        <v>11.873736013567724</v>
+        <v>10.367255756846317</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -7862,13 +7874,13 @@
       </c>
       <c r="C10">
         <f>C9*(C8/C3)</f>
-        <v>1.590232501817106E-2</v>
+        <v>1.2341971139102757E-2</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -7876,11 +7888,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <f>FLOOR(24/C10,1)</f>
-        <v>1509</v>
+        <f>(C3*(1/C8)/(C6*3.1415))</f>
+        <v>81.026724349977584</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7899,19 +7911,26 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>18*C11</f>
+        <v>1458.4810382995965</v>
+      </c>
+      <c r="D12">
+        <v>1527.6</v>
+      </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
         <f>H11+$H$7</f>
-        <v>7.0524553571428575E-2</v>
+        <v>2.2712948359932286E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I21" si="0">(H12+$H$21/10)*PI()/$H$21</f>
+        <f t="shared" ref="I12:I20" si="0">(H12+$H$21/10)*PI()/$H$21</f>
         <v>0.62831853071795862</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J21" si="1">SIN(I12)</f>
+        <f t="shared" ref="J12:J20" si="1">SIN(I12)</f>
         <v>0.58778525229247314</v>
       </c>
     </row>
@@ -7921,20 +7940,20 @@
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H20" si="2">H12+$H$7</f>
-        <v>0.14104910714285715</v>
+        <v>4.5425896719864571E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.94247779607693782</v>
+        <v>0.94247779607693793</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.80901699437494734</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -7944,7 +7963,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.21157366071428574</v>
+        <v>6.8138845079796853E-2</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -7957,7 +7976,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <f>PI()*C14</f>
@@ -7968,7 +7987,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.2820982142857143</v>
+        <v>9.0851793439729142E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -7981,22 +8000,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <f>FLOOR((90/360)*C15/C10,1)</f>
-        <v>790</v>
+        <v>1018</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.35262276785714286</v>
+        <v>0.11356474179966143</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1.8849555921538756</v>
+        <v>1.8849555921538759</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
@@ -8009,15 +8028,15 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.42314732142857142</v>
+        <v>0.13627769015959371</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>2.1991148575128547</v>
+        <v>2.1991148575128552</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.80901699437494778</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8026,7 +8045,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.49367187499999998</v>
+        <v>0.158990638519526</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -8043,7 +8062,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.5641964285714286</v>
+        <v>0.18170358687945828</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -8056,20 +8075,20 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.63472098214285722</v>
+        <v>0.20441653523939057</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -8086,16 +8105,16 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <f>H20+$H$7</f>
-        <v>0.70524553571428583</v>
+        <v>0.22712948359932286</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <f>1/C21</f>
@@ -8104,7 +8123,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <f>C3/C23</f>
@@ -8117,25 +8136,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <f>C11/C24</f>
-        <v>0.50524553571428577</v>
+        <v>2.7129483599322855E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <f>C24/C11</f>
-        <v>1.9792356969295337</v>
+        <v>36.860266666666661</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>1500</v>
@@ -8143,7 +8162,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <f>FLOOR(F30*(1/C24)*1000,1)</f>
@@ -8152,20 +8171,72 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <f>FLOOR(F31*1.1,1)</f>
         <v>552</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <f>FLOOR(F32/10,1)</f>
         <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f>100*(3.77-3.15)/3.77</f>
+        <v>16.445623342175072</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f>B36/C36</f>
+        <v>3.2891246684350142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f>2*B37</f>
+        <v>6.5782493368700283</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f>(1-B38/100)*3.77</f>
+        <v>3.5219999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1273</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f>E43*D42/E42</f>
+        <v>1527.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8190,10 +8261,10 @@
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -8204,13 +8275,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -8745,7 +8816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD9C435-F989-4848-8014-E9A413DBD29A}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8756,7 +8827,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1">
         <v>1120</v>
@@ -8764,7 +8835,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <f>24/32</f>
@@ -8782,10 +8853,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <f>(I1+I2)/(I3*PI())</f>
@@ -8794,7 +8865,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -8802,7 +8873,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>0.8</v>
@@ -8810,43 +8881,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -9300,4 +9371,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C8E91-8950-1A46-B57C-4F9B5DBEB4EA}">
+  <dimension ref="A4:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <f>C6-0.7</f>
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Calculators/Book1.xlsx
+++ b/Calculators/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gweaver/Documents/GitHub/2023CompetitionCode/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB8CF1-3B54-B54E-A8BF-39E7216843DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3A1D9-23D0-0B4B-8A36-967C168E8C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-37600" yWindow="860" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{DFA375D6-9131-1943-A250-858AF81AA25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Position</t>
   </si>
@@ -292,6 +292,9 @@
   <si>
     <t>inches</t>
   </si>
+  <si>
+    <t>kT</t>
+  </si>
 </sst>
 </file>
 
@@ -403,103 +406,108 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$8:$A$111</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="104"/>
+              <c:strCache>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>0.900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2.900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>kT</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -562,40 +570,40 @@
                   <c:v>5083.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5382.72</c:v>
+                  <c:v>5277.7449984000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5184.8272895999999</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5460.3572681441283</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5161.3172681441283</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5460.3572681441283</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5161.3172681441292</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5460.3572681441292</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5161.3172681441292</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5460.3572681441292</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5161.3172681441292</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5460.3572681441283</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5161.3172681441283</c:v>
+                  <c:v>5297.7104054353922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,103 +642,108 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$8:$A$111</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="104"/>
+              <c:strCache>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>0.900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2.300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2.900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>kT</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -793,40 +806,40 @@
                   <c:v>216.31999999999971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-82.720000000000255</c:v>
+                  <c:v>22.255001599999559</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115.17271040000014</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-160.35726814412828</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>138.68273185587168</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-160.35726814412828</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>138.68273185587077</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-160.35726814412919</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>138.68273185587077</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-160.35726814412919</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>138.68273185587077</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-160.35726814412828</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>138.68273185587168</c:v>
+                  <c:v>2.2895945646077962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +898,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1170,43 +1183,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.64895999999999909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.66176000000000201</c:v>
+                  <c:v>6.6765004799998681E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92138168320000113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,41 +5239,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B514462-B40D-EF48-ABE2-33E580FCE3BD}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <f>0.2*G1</f>
-        <v>8.0000000000000002E-3</v>
+        <v>59.808000000000007</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>A1</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>299.04000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f>0.4*G1/G2</f>
-        <v>0.08</v>
+        <v>1196.1600000000001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5272,13 +5286,16 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f>G1*G2*6/90</f>
-        <v>5.3333333333333336E-4</v>
+        <v>1.9936000000000005</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -5287,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -5354,7 +5371,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -5373,11 +5390,11 @@
       </c>
       <c r="F8" s="3">
         <f>$C$1*(C8+$C$2*D8+$C$3*E8)</f>
-        <v>42.4</v>
+        <v>15.9</v>
       </c>
       <c r="G8" s="3">
         <f>IF(ABS(C8)&lt;$G$4,0,F8)</f>
-        <v>42.4</v>
+        <v>15.9</v>
       </c>
       <c r="H8" s="3">
         <f>IF(ABS(G8)&gt;1,SIGN(G8),G8)</f>
@@ -5389,7 +5406,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.1</v>
       </c>
@@ -5411,11 +5428,11 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ref="F9:F37" si="1">$C$1*(C9+$C$2*D9+$C$3*E9)</f>
-        <v>40.007680000000001</v>
+        <v>15.002880000000001</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9:G37" si="2">IF(ABS(C9)&lt;$G$4,0,F9)</f>
-        <v>40.007680000000001</v>
+        <v>15.002880000000001</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H37" si="3">IF(ABS(G9)&gt;1,SIGN(G9),G9)</f>
@@ -5427,7 +5444,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.2</v>
       </c>
@@ -5449,11 +5466,11 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>37.615360000000003</v>
+        <v>14.10576</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>37.615360000000003</v>
+        <v>14.10576</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
@@ -5468,7 +5485,7 @@
         <v>299.04000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.3</v>
       </c>
@@ -5490,11 +5507,11 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>35.223040000000005</v>
+        <v>13.208640000000001</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>35.223040000000005</v>
+        <v>13.208640000000001</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
@@ -5509,7 +5526,7 @@
         <v>299.03999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.4</v>
       </c>
@@ -5531,11 +5548,11 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>32.830719999999999</v>
+        <v>12.311520000000002</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>32.830719999999999</v>
+        <v>12.311520000000002</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
@@ -5550,7 +5567,7 @@
         <v>299.04000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.5</v>
       </c>
@@ -5572,11 +5589,11 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>30.438400000000001</v>
+        <v>11.414400000000001</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>30.438400000000001</v>
+        <v>11.414400000000001</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
@@ -5591,7 +5608,7 @@
         <v>299.03999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.6</v>
       </c>
@@ -5613,11 +5630,11 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>28.046080000000003</v>
+        <v>10.517280000000001</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v>28.046080000000003</v>
+        <v>10.517280000000001</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
@@ -5632,7 +5649,7 @@
         <v>299.03999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.7</v>
       </c>
@@ -5654,11 +5671,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>25.653760000000002</v>
+        <v>9.6201600000000003</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>25.653760000000002</v>
+        <v>9.6201600000000003</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
@@ -5673,7 +5690,7 @@
         <v>299.03999999999974</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.8</v>
       </c>
@@ -5695,11 +5712,11 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>23.26144</v>
+        <v>8.7230399999999992</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>23.26144</v>
+        <v>8.7230399999999992</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
@@ -5736,11 +5753,11 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>20.869119999999999</v>
+        <v>7.82592</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>20.869119999999999</v>
+        <v>7.82592</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
@@ -5777,11 +5794,11 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>18.476800000000001</v>
+        <v>6.9287999999999998</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>18.476800000000001</v>
+        <v>6.9287999999999998</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
@@ -5818,11 +5835,11 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>16.084479999999996</v>
+        <v>6.0316799999999988</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>16.084479999999996</v>
+        <v>6.0316799999999988</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
@@ -5859,11 +5876,11 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>13.692159999999999</v>
+        <v>5.1345600000000005</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>13.692159999999999</v>
+        <v>5.1345600000000005</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
@@ -5900,11 +5917,11 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>11.299839999999996</v>
+        <v>4.2374399999999985</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>11.299839999999996</v>
+        <v>4.2374399999999985</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
@@ -5941,11 +5958,11 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>8.9075199999999963</v>
+        <v>3.3403199999999988</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>8.9075199999999963</v>
+        <v>3.3403199999999988</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
@@ -5982,11 +5999,11 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>6.5151999999999974</v>
+        <v>2.4431999999999992</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
-        <v>6.5151999999999974</v>
+        <v>2.4431999999999992</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
@@ -6023,11 +6040,11 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>4.1228799999999977</v>
+        <v>1.546079999999999</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="2"/>
-        <v>4.1228799999999977</v>
+        <v>1.546079999999999</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
@@ -6064,19 +6081,19 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>1.7305599999999977</v>
+        <v>0.64895999999999909</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="2"/>
-        <v>1.7305599999999977</v>
+        <v>0.64895999999999909</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.64895999999999909</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.64895999999999909</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="8"/>
@@ -6089,39 +6106,39 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>5382.72</v>
+        <v>5277.7449984000004</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="5"/>
-        <v>-82.720000000000255</v>
+        <v>22.255001599999559</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>27562.463999999993</v>
+        <v>27751.419002879993</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="7"/>
-        <v>166.1333333333333</v>
+        <v>107.81388800000008</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>-0.66176000000000201</v>
+        <v>6.6765004799998681E-2</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="2"/>
-        <v>-0.66176000000000201</v>
+        <v>6.6765004799998681E-2</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>-0.66176000000000201</v>
+        <v>6.6765004799998681E-2</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>-0.66176000000000201</v>
+        <v>6.6765004799998681E-2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="8"/>
-        <v>299.03999999999996</v>
+        <v>194.06499840000015</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -6130,39 +6147,39 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>5184.8272895999999</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="5"/>
-        <v>115.17271040000014</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="6"/>
-        <v>27781.292149759993</v>
+        <v>27755.76923255275</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="7"/>
-        <v>-104.15405810526337</v>
+        <v>10.508108965995666</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>0.92138168320000113</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="2"/>
-        <v>0.92138168320000113</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>0.92138168320000113</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>0.92138168320000113</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="8"/>
-        <v>-197.8927104000004</v>
+        <v>19.965407035391763</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -6171,39 +6188,39 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>5460.3572681441283</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="5"/>
-        <v>-160.35726814412828</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="6"/>
-        <v>27460.577613471738</v>
+        <v>27760.348421681963</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="7"/>
-        <v>137.76498927206421</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2828581451530263</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2828581451530263</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="8"/>
-        <v>275.52997854412843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -6212,39 +6229,39 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>5161.3172681441283</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="5"/>
-        <v>138.68273185587168</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="6"/>
-        <v>27751.811350369069</v>
+        <v>27765.156570267638</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="7"/>
-        <v>-142.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>1.1094618548469735</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="2"/>
-        <v>1.1094618548469735</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="8"/>
-        <v>-299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -6253,39 +6270,39 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>5460.3572681441283</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="5"/>
-        <v>-160.35726814412828</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="6"/>
-        <v>27399.025360451986</v>
+        <v>27770.193678309774</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="7"/>
-        <v>135.92727272727271</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2828581451530263</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2828581451530263</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="8"/>
-        <v>299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -6294,39 +6311,39 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>5161.3172681441292</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="5"/>
-        <v>138.68273185587077</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="6"/>
-        <v>27717.995643720489</v>
+        <v>27775.45974580837</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="7"/>
-        <v>-130.01739130434743</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>1.1094618548469661</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="2"/>
-        <v>1.1094618548469661</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="8"/>
-        <v>-299.03999999999905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -6335,39 +6352,39 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>5460.3572681441292</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="5"/>
-        <v>-160.35726814412919</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="6"/>
-        <v>27333.138200174581</v>
+        <v>27780.954772763427</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="7"/>
-        <v>124.6</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2828581451530336</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2828581451530336</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="8"/>
-        <v>299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -6376,39 +6393,39 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>5161.3172681441292</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="5"/>
-        <v>138.68273185587077</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="6"/>
-        <v>27679.845029814256</v>
+        <v>27786.678759174945</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="7"/>
-        <v>-119.61599999999999</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>1.1094618548469661</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="2"/>
-        <v>1.1094618548469661</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="8"/>
-        <v>-299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -6417,39 +6434,39 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>5460.3572681441292</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="5"/>
-        <v>-160.35726814412919</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="6"/>
-        <v>27262.916132639519</v>
+        <v>27792.631705042924</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="7"/>
-        <v>115.01538461538459</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2828581451530336</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2828581451530336</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="8"/>
-        <v>299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -6458,39 +6475,39 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>5161.3172681441292</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="5"/>
-        <v>138.68273185587077</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="6"/>
-        <v>27637.35950865037</v>
+        <v>27798.813610367364</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="7"/>
-        <v>-110.75555555555553</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
-        <v>1.1094618548469661</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>1.1094618548469661</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="8"/>
-        <v>-299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -6499,39 +6516,39 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>5460.3572681441283</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="5"/>
-        <v>-160.35726814412828</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="6"/>
-        <v>27188.359157846811</v>
+        <v>27805.224475148265</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="7"/>
-        <v>106.79999999999967</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
-        <v>-1.2828581451530263</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2828581451530263</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="8"/>
-        <v>299.03999999999905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -6540,39 +6557,39 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>5161.3172681441283</v>
+        <v>5297.7104054353922</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="5"/>
-        <v>138.68273185587168</v>
+        <v>2.2895945646077962</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="6"/>
-        <v>27590.539080228838</v>
+        <v>27811.864299385627</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="7"/>
-        <v>-103.11724137931033</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
-        <v>1.1094618548469735</v>
+        <v>6.8687836938233883E-3</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="2"/>
-        <v>1.1094618548469735</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="8"/>
-        <v>-299.03999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -6588,8 +6605,12 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -6600,8 +6621,14 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3">
+        <f>A37-A36</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B36-B37</f>
+        <v>0</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7796,7 +7823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA48B278-53BF-424D-95F9-0C3227BF9337}">
   <dimension ref="A3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
